--- a/Entrega1/Armado_de_computadoras.xlsx
+++ b/Entrega1/Armado_de_computadoras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user2021/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user2021/Desktop/Mi Mochila/Camada5_0822/Entrega1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7539FD70-0883-1449-989C-76DA8CEB34E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F74114-49B6-3F46-A255-AD48EDE7F117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C269B98D-C55B-DF46-A14A-B8F006F24467}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{C269B98D-C55B-DF46-A14A-B8F006F24467}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Placa Madre</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>RTX 3090</t>
+  </si>
+  <si>
+    <t>Franco_Olivares</t>
   </si>
 </sst>
 </file>
@@ -757,9 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F5EBE0-684C-C542-9560-1F3AD1D3628A}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -776,7 +777,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
